--- a/data/hotels_by_city/Dallas/Dallas_shard_467.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_467.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="193">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Heather R</t>
+  </si>
+  <si>
     <t>06/14/2018</t>
   </si>
   <si>
@@ -177,6 +180,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>Stephanie M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d107153-r470096191-Knights_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -198,6 +204,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>Sebastian R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d107153-r441429637-Knights_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -222,6 +231,9 @@
     <t>Customers be careful about this hotel, management are crooks.  I booked a reservation on 11/21 for a non smoking room, and when i got there the room was unbearable with cigarette smell and it was just too dirty to stay.  So i talked to the receptionist who said i would get a refund in five days.  10 days later i still haven't got a refund so I called the hotel.  I just got off the phone with Neimash Patel who identified himself as the hotel manager and he tried to give me every excuse possible to not give me my refund ( i didn't stay in the room more than a minute).  after a very long phone call he said to call him tomorrow.  This place is not worth your money the establishment resembles a third world country's gas station bathroom.  If you're looking for a cheap night stay after drinking in denton just get an uber home.More</t>
   </si>
   <si>
+    <t>traci b</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d107153-r403005825-Knights_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -240,6 +252,9 @@
     <t>August 2016</t>
   </si>
   <si>
+    <t>CGKD2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d107153-r292791541-Knights_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -261,6 +276,9 @@
     <t>After an almost 5 hour trip, we arrived and check-in was Pretty easy. Got to room and it reeked of fish! I brought it to the attendants attention and they said it was probably because they had recently shampooed the carpet. I agreed to let the room cool off and see if the smell would dissipate. We left for a while and came back and it still reeked of fish *gag*! New attendant let us switch rooms with no problems :) We moved, ate supper quickly, then the children excitedly changed to go swimming. They got down there only to find a locked gate!!!! I called front desk and was informed that pool is closed indefinitely!!!!!!!!! Now I am stuck with two very disappointed kids in this room for two days and no outlet for their energy!!!! I am beyond passed...this is very pertinent information that should be on their home page! I wouldn't have come here if I had been properly informed. Most everything else is decent though.More</t>
   </si>
   <si>
+    <t>hoteljunkys</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d107153-r282517720-Knights_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -279,6 +297,9 @@
     <t>April 2015</t>
   </si>
   <si>
+    <t>amyt555</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d107153-r239474803-Knights_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -297,6 +318,9 @@
     <t>first off . I got a room that you couldn't. get into because. door wouldn't. unlock..so I walked back to office and asked for new room..lady behind the desk wasn't. very apologetic.. took her five minutes to come out of her room behind deskwhen I did get the key to another room I walked in and there was no smoke detector...and ollllldddd. school microwave.. beat up vampire with old tv all The mirrors were dirty.. the towels had blue stains on WHITE (grungy) towel .. the shower head could not wash a flea.... and the towel rack had been ripped off the wall and put back on very poorly.. the overall comfort .. bed was stained ,sheets didn't fit ... and I WILL NEVER WASTE A DOLLAR AT THAT. KNIGHTS. INN MUCHLESS MY REWARDS POINTS.. OH TO TOP IT OFF...NO PETS..BUT WHAT DO I SEE AS SOON AS I WALK BACK AROUND. DARK S CORNER..A DOG COMING OUT OF A ROOM.. REALLY..THAY PLACE. GETS A NEGATIVE FIVE FOR TOTAL DIVE...never again More</t>
   </si>
   <si>
+    <t>Lisa E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d107153-r237664873-Knights_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -318,6 +342,9 @@
     <t>We weren't expecting much and were a bit worried about staying here as there was a big NASCAR event in town and many hotels were booked up (which is why we ended up here).  It was actually and nice stay.  The room was old, but everything worked.  It did say non-smoking, but didn't exactly smell as if that were true. The bed wasn't exactly comfortable, but I had a great night's sleep.  There was no noise and was very quiet.  The only disconcerting things was the police were there when we arrived and were taking someone away.  Hmmmmm.  We didn't have the breakfast as we got there late and they had packed it up early anyway because someone had spilled pancake batter all over the counter and floor.  It was a bit of a pain to get to as it is on a one-way frontage road, but it all worked out.  I'm not sure I'd stay here again, but it was OK&gt;More</t>
   </si>
   <si>
+    <t>Bignbeefy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d107153-r229895824-Knights_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -342,6 +369,9 @@
     <t>After reading some of the reviews on here, I was expecting a real house of horrors. We stayed here for one night after a UNT football game so we did not need anything special. We chose this because it was cheap and it is cheap! It is close to UNT campus.Firstly the rooms are quite large. They were dated, but had everything you would need and they were clean. The aircon/cooler was a bit noisy but it didn't stop me sleeping at all - and it did its job on a 100 degree Texas day. The TV has all the stations including all sports channels. Bed was comfy too.Went to Sonic next door for dinner which is literally a 30 second walk.We had toast &amp; coffee for breakfast - seemed to be the standard US continental selection. WiFi was good too &amp; free!All in all not a bad experience and not the one we might have been prepared for!!!!More</t>
   </si>
   <si>
+    <t>Sandi S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d107153-r203044453-Knights_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -363,6 +393,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>Steven S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d107153-r198580401-Knights_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -381,6 +414,9 @@
     <t>March 2014</t>
   </si>
   <si>
+    <t>Sharron M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d107153-r185721829-Knights_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -402,6 +438,9 @@
     <t>My daughter and I made the disastrous mistake of renting a room from this "roach motel". When I saw one roach, I was like ok not a problem, but seriously no lying, in a 5 hour span I killed no less than 30 roaches. Roaches of all kinds- big, little, pregnant- you name it. When I checked out the front desk clerk tried acting all nonchalant like "I didn't know there were any pest, we're very strict about out pest control procedures in this facility." I find that very hard to believe with the number of roaches I killed that night. And also the room was raggedy, old-fashioned, and out of date with a big gapping hole in the bathroom ceiling. Of course the front desk clerk swears he knew nothing about that either. For you and your families safety DO NOT RENT FROM THESE PEOPLE.More</t>
   </si>
   <si>
+    <t>tescbs</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d107153-r184310114-Knights_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -420,6 +459,9 @@
     <t>Motel was convenient to the highways for access to the race track.Parking It was somewhat limited and a little cramped. RoomThe bed was very comfortable. Wifi was great. Power for electronics was very limited. Only 1 free outlet for plugging into.Comfort other than sleeping..There was only 1 couch that sat very low and not very comfortable.There were three coffee tables one of which was almost falling down due to the legs being very loose. No chairs or a desk in the room.In this day and age of technology, I was very surprised to see no desk for using the Wifi in addition to the lack of plugs as stated above. The breakfast was very limited as far as items available. Coffee was very bad.More</t>
   </si>
   <si>
+    <t>Sophiemonster</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d107153-r162668492-Knights_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -438,6 +480,9 @@
     <t>May 2013</t>
   </si>
   <si>
+    <t>swineshead</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d107153-r159919851-Knights_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -456,6 +501,9 @@
     <t>April 2013</t>
   </si>
   <si>
+    <t>ChiEditer</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d107153-r23236236-Knights_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -477,6 +525,9 @@
     <t>My friends and I stayed here b/c it was conveniently located along the highway and the price was right. For the money, well, you get what you pay for, so I can't complaint but I DON'T recommend staying here. The rooms weren't clean (crumbs on the floor, trash on the floor of the bathroom), appliances were marginal (no plug in the drain of the sink), and there was a big stain that looked like vomit on the rug. The *best* thing was the doorjamb, which was repaired, but had been splintered apart at one point in time --- someone had kicked the door in. Oh, and no security locks on the door --- just a chain.More</t>
   </si>
   <si>
+    <t>NewTravelerArkansas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d107153-r18714573-Knights_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -498,6 +549,9 @@
     <t>I attempted to stay at this hotel in July 2008. I was in town for a convention and our group leader had negotiated a cheaper rate. I showed up at about 8:30p.m., paid in cash and got my key. When I pulled up to my room, there were several men on the steps drinking beer, listening to music and barbecuing. Yes, they actually had a grill. Anyway, I went to my room and my friend and I were very disappointed in the room. It was run down, holes in the ceiling, and lots of dust and hair in the chairs. The towels looked as if they had been dried only, not washed or bleached. The sheets were BLUE (???) and dingy. Even so, we wanted to honor our reservation and decided we would just go to Wal-Mart and pick up some cleaning supplies and clean the rooms and try to stay through the weekend as we had planned. Right about that time, we saw roaches crawling up the wall. At that point, we knew we couldn't endure it. We left the room, and went back to the front desk to get a refund. The lady apologized for the condition of the room and asked me to look at another room that would be better. As we were looking the room over, a manager of sorts came to the door and asked what we had decided. We told him we were...I attempted to stay at this hotel in July 2008. I was in town for a convention and our group leader had negotiated a cheaper rate. I showed up at about 8:30p.m., paid in cash and got my key. When I pulled up to my room, there were several men on the steps drinking beer, listening to music and barbecuing. Yes, they actually had a grill. Anyway, I went to my room and my friend and I were very disappointed in the room. It was run down, holes in the ceiling, and lots of dust and hair in the chairs. The towels looked as if they had been dried only, not washed or bleached. The sheets were BLUE (???) and dingy. Even so, we wanted to honor our reservation and decided we would just go to Wal-Mart and pick up some cleaning supplies and clean the rooms and try to stay through the weekend as we had planned. Right about that time, we saw roaches crawling up the wall. At that point, we knew we couldn't endure it. We left the room, and went back to the front desk to get a refund. The lady apologized for the condition of the room and asked me to look at another room that would be better. As we were looking the room over, a manager of sorts came to the door and asked what we had decided. We told him we were not going to stay. At that point he became very irate, yelling and insisting that we leave the room immediately and told us that we WOULD pay for the room since we had "messed up two good rooms." He threatened to call the cops on us and was completely livid! He ranted and raved in a horrible way. We ended up having to pay a $35 cancellation fee for that horrific experience, and we were disrespected and badgered in the process. Obviously, I will never stay there again, and I was surprised that people in public service could behave so horribly. We left there and went to another hotel which was more expensive but totally worth it. I would not recommend this place to my enemy.More</t>
   </si>
   <si>
+    <t>8thSamurai</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d107153-r17109570-Knights_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -517,6 +571,9 @@
   </si>
   <si>
     <t>I am a member of Trip Rewards now called Wyndham Rewards. I usually have good results booking through them. This Days Inn is misrepresented by the photo. It is now a run down, seedy establishment. The room I stayed in had been renovated and it was still a mess. When I first arrived I knew by the old furniture stacked up on the 2nd floor landing that this was going to be bad. I have photos, but cannot download them at this time. I stayed one night and checked out the next day. A pretty new Super 8 is just a mile down the road and a great value for all that you get. There are plenty of other motels as well.More</t>
+  </si>
+  <si>
+    <t>Roadster81</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d107153-r12833398-Knights_Inn_Denton-Denton_Texas.html</t>
@@ -1042,43 +1099,47 @@
       <c r="A2" t="n">
         <v>22152</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>28419</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1096,50 +1157,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>22152</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>2559</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1153,50 +1218,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>22152</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>162745</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="O4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="n">
@@ -1214,50 +1283,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>22152</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>162746</v>
+      </c>
+      <c r="C5" t="s">
+        <v>71</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="J5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="O5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1271,50 +1344,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>22152</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>162747</v>
+      </c>
+      <c r="C6" t="s">
+        <v>78</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="L6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="O6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="n">
@@ -1334,50 +1411,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>22152</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>162748</v>
+      </c>
+      <c r="C7" t="s">
+        <v>86</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="J7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="L7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="O7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1391,41 +1472,45 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>22152</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>162749</v>
+      </c>
+      <c r="C8" t="s">
+        <v>93</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="J8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="K8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="L8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
@@ -1454,50 +1539,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>22152</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>58578</v>
+      </c>
+      <c r="C9" t="s">
+        <v>100</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="J9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="K9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="L9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="M9" t="n">
         <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="O9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P9" t="n">
         <v>3</v>
@@ -1517,50 +1606,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>22152</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>162750</v>
+      </c>
+      <c r="C10" t="s">
+        <v>108</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="J10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="K10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="L10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="O10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="P10" t="n">
         <v>5</v>
@@ -1580,50 +1673,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>22152</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>37375</v>
+      </c>
+      <c r="C11" t="s">
+        <v>117</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="J11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="K11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="L11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="O11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -1637,50 +1734,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>22152</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>3062</v>
+      </c>
+      <c r="C12" t="s">
+        <v>125</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="J12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="K12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="L12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="M12" t="n">
         <v>2</v>
       </c>
       <c r="N12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="O12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P12" t="n">
         <v>2</v>
@@ -1704,50 +1805,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>22152</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>162751</v>
+      </c>
+      <c r="C13" t="s">
+        <v>132</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="J13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="K13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="L13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="O13" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P13" t="n">
         <v>1</v>
@@ -1771,50 +1876,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>22152</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>162752</v>
+      </c>
+      <c r="C14" t="s">
+        <v>140</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="J14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="K14" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="L14" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="M14" t="n">
         <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="O14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P14" t="n">
         <v>3</v>
@@ -1838,50 +1947,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>22152</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>162753</v>
+      </c>
+      <c r="C15" t="s">
+        <v>147</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="J15" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="K15" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="L15" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="O15" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P15" t="n">
         <v>1</v>
@@ -1905,50 +2018,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>22152</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>162754</v>
+      </c>
+      <c r="C16" t="s">
+        <v>154</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="J16" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="K16" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="L16" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="O16" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="P16" t="n">
         <v>5</v>
@@ -1972,50 +2089,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>22152</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>162755</v>
+      </c>
+      <c r="C17" t="s">
+        <v>161</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="J17" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="K17" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="L17" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="O17" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="P17" t="n">
         <v>2</v>
@@ -2037,50 +2158,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>22152</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>162756</v>
+      </c>
+      <c r="C18" t="s">
+        <v>169</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="J18" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="K18" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="L18" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="O18" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="P18" t="n">
         <v>1</v>
@@ -2104,50 +2229,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>22152</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>162757</v>
+      </c>
+      <c r="C19" t="s">
+        <v>177</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="J19" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="K19" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="L19" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="O19" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="P19" t="n">
         <v>1</v>
@@ -2171,50 +2300,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>22152</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>162758</v>
+      </c>
+      <c r="C20" t="s">
+        <v>185</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="J20" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="K20" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="L20" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="O20" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P20" t="n">
         <v>5</v>
@@ -2238,7 +2371,7 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_467.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_467.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="205">
   <si>
     <t>STR#</t>
   </si>
@@ -147,10 +147,7 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Heather R</t>
-  </si>
-  <si>
-    <t>06/14/2018</t>
+    <t>08/24/2018</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d107153-r479336863-Knights_Inn_Denton-Denton_Texas.html</t>
@@ -180,9 +177,6 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
-    <t>Stephanie M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d107153-r470096191-Knights_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -204,9 +198,6 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
-    <t>Sebastian R</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d107153-r441429637-Knights_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -231,9 +222,6 @@
     <t>Customers be careful about this hotel, management are crooks.  I booked a reservation on 11/21 for a non smoking room, and when i got there the room was unbearable with cigarette smell and it was just too dirty to stay.  So i talked to the receptionist who said i would get a refund in five days.  10 days later i still haven't got a refund so I called the hotel.  I just got off the phone with Neimash Patel who identified himself as the hotel manager and he tried to give me every excuse possible to not give me my refund ( i didn't stay in the room more than a minute).  after a very long phone call he said to call him tomorrow.  This place is not worth your money the establishment resembles a third world country's gas station bathroom.  If you're looking for a cheap night stay after drinking in denton just get an uber home.More</t>
   </si>
   <si>
-    <t>traci b</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d107153-r403005825-Knights_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -252,9 +240,6 @@
     <t>August 2016</t>
   </si>
   <si>
-    <t>CGKD2013</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d107153-r292791541-Knights_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -276,9 +261,6 @@
     <t>After an almost 5 hour trip, we arrived and check-in was Pretty easy. Got to room and it reeked of fish! I brought it to the attendants attention and they said it was probably because they had recently shampooed the carpet. I agreed to let the room cool off and see if the smell would dissipate. We left for a while and came back and it still reeked of fish *gag*! New attendant let us switch rooms with no problems :) We moved, ate supper quickly, then the children excitedly changed to go swimming. They got down there only to find a locked gate!!!! I called front desk and was informed that pool is closed indefinitely!!!!!!!!! Now I am stuck with two very disappointed kids in this room for two days and no outlet for their energy!!!! I am beyond passed...this is very pertinent information that should be on their home page! I wouldn't have come here if I had been properly informed. Most everything else is decent though.More</t>
   </si>
   <si>
-    <t>hoteljunkys</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d107153-r282517720-Knights_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -297,9 +279,6 @@
     <t>April 2015</t>
   </si>
   <si>
-    <t>amyt555</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d107153-r239474803-Knights_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -318,9 +297,6 @@
     <t>first off . I got a room that you couldn't. get into because. door wouldn't. unlock..so I walked back to office and asked for new room..lady behind the desk wasn't. very apologetic.. took her five minutes to come out of her room behind deskwhen I did get the key to another room I walked in and there was no smoke detector...and ollllldddd. school microwave.. beat up vampire with old tv all The mirrors were dirty.. the towels had blue stains on WHITE (grungy) towel .. the shower head could not wash a flea.... and the towel rack had been ripped off the wall and put back on very poorly.. the overall comfort .. bed was stained ,sheets didn't fit ... and I WILL NEVER WASTE A DOLLAR AT THAT. KNIGHTS. INN MUCHLESS MY REWARDS POINTS.. OH TO TOP IT OFF...NO PETS..BUT WHAT DO I SEE AS SOON AS I WALK BACK AROUND. DARK S CORNER..A DOG COMING OUT OF A ROOM.. REALLY..THAY PLACE. GETS A NEGATIVE FIVE FOR TOTAL DIVE...never again More</t>
   </si>
   <si>
-    <t>Lisa E</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d107153-r237664873-Knights_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -342,9 +318,6 @@
     <t>We weren't expecting much and were a bit worried about staying here as there was a big NASCAR event in town and many hotels were booked up (which is why we ended up here).  It was actually and nice stay.  The room was old, but everything worked.  It did say non-smoking, but didn't exactly smell as if that were true. The bed wasn't exactly comfortable, but I had a great night's sleep.  There was no noise and was very quiet.  The only disconcerting things was the police were there when we arrived and were taking someone away.  Hmmmmm.  We didn't have the breakfast as we got there late and they had packed it up early anyway because someone had spilled pancake batter all over the counter and floor.  It was a bit of a pain to get to as it is on a one-way frontage road, but it all worked out.  I'm not sure I'd stay here again, but it was OK&gt;More</t>
   </si>
   <si>
-    <t>Bignbeefy</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d107153-r229895824-Knights_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -369,9 +342,6 @@
     <t>After reading some of the reviews on here, I was expecting a real house of horrors. We stayed here for one night after a UNT football game so we did not need anything special. We chose this because it was cheap and it is cheap! It is close to UNT campus.Firstly the rooms are quite large. They were dated, but had everything you would need and they were clean. The aircon/cooler was a bit noisy but it didn't stop me sleeping at all - and it did its job on a 100 degree Texas day. The TV has all the stations including all sports channels. Bed was comfy too.Went to Sonic next door for dinner which is literally a 30 second walk.We had toast &amp; coffee for breakfast - seemed to be the standard US continental selection. WiFi was good too &amp; free!All in all not a bad experience and not the one we might have been prepared for!!!!More</t>
   </si>
   <si>
-    <t>Sandi S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d107153-r203044453-Knights_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -393,9 +363,6 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
-    <t>Steven S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d107153-r198580401-Knights_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -414,9 +381,6 @@
     <t>March 2014</t>
   </si>
   <si>
-    <t>Sharron M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d107153-r185721829-Knights_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -438,9 +402,6 @@
     <t>My daughter and I made the disastrous mistake of renting a room from this "roach motel". When I saw one roach, I was like ok not a problem, but seriously no lying, in a 5 hour span I killed no less than 30 roaches. Roaches of all kinds- big, little, pregnant- you name it. When I checked out the front desk clerk tried acting all nonchalant like "I didn't know there were any pest, we're very strict about out pest control procedures in this facility." I find that very hard to believe with the number of roaches I killed that night. And also the room was raggedy, old-fashioned, and out of date with a big gapping hole in the bathroom ceiling. Of course the front desk clerk swears he knew nothing about that either. For you and your families safety DO NOT RENT FROM THESE PEOPLE.More</t>
   </si>
   <si>
-    <t>tescbs</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d107153-r184310114-Knights_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -459,9 +420,6 @@
     <t>Motel was convenient to the highways for access to the race track.Parking It was somewhat limited and a little cramped. RoomThe bed was very comfortable. Wifi was great. Power for electronics was very limited. Only 1 free outlet for plugging into.Comfort other than sleeping..There was only 1 couch that sat very low and not very comfortable.There were three coffee tables one of which was almost falling down due to the legs being very loose. No chairs or a desk in the room.In this day and age of technology, I was very surprised to see no desk for using the Wifi in addition to the lack of plugs as stated above. The breakfast was very limited as far as items available. Coffee was very bad.More</t>
   </si>
   <si>
-    <t>Sophiemonster</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d107153-r162668492-Knights_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -480,9 +438,6 @@
     <t>May 2013</t>
   </si>
   <si>
-    <t>swineshead</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d107153-r159919851-Knights_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -501,7 +456,101 @@
     <t>April 2013</t>
   </si>
   <si>
-    <t>ChiEditer</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d107153-r145385855-Knights_Inn_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>145385855</t>
+  </si>
+  <si>
+    <t>11/14/2012</t>
+  </si>
+  <si>
+    <t>WORST EXPERIENCE EVER!</t>
+  </si>
+  <si>
+    <t>DO NOT STAY HERE. I stayed here with my wife and 9 month old baby. All of the employees and guests were creepy and made sexual moves towards my wife everytime she left the room, we shrugged it off, I mean you get what you pay for right? Wrong. While my wife was in the room she would get calls on the hotel room phone asking "If you want to [--], come to room 225," well when it happened the first day she said they must have had the wrong number and we assumed it would stop. We continued to get more calls at the beginning of our second week, saying the same thing everytime, all three calls in one day. I called the office and explained what happened, they just said there was nothing they could do. I asked if they could pull the call logs they said no, and on top of that they said there was no room 225. I did a little investigating and found out that the room "225" or at least where it should have been, was a "storage room" and had the numbers scratched off. I saw that there were people inside most of these "storage rooms" that appeared to be some sort of employee housing. When I asked him about it he continued to get irate and say that it was storage. I told him my wife didn't feel comfortable and he...DO NOT STAY HERE. I stayed here with my wife and 9 month old baby. All of the employees and guests were creepy and made sexual moves towards my wife everytime she left the room, we shrugged it off, I mean you get what you pay for right? Wrong. While my wife was in the room she would get calls on the hotel room phone asking "If you want to [--], come to room 225," well when it happened the first day she said they must have had the wrong number and we assumed it would stop. We continued to get more calls at the beginning of our second week, saying the same thing everytime, all three calls in one day. I called the office and explained what happened, they just said there was nothing they could do. I asked if they could pull the call logs they said no, and on top of that they said there was no room 225. I did a little investigating and found out that the room "225" or at least where it should have been, was a "storage room" and had the numbers scratched off. I saw that there were people inside most of these "storage rooms" that appeared to be some sort of employee housing. When I asked him about it he continued to get irate and say that it was storage. I told him my wife didn't feel comfortable and he needed to either make the calls stop find out who it is and reassure us of some sort of safety or work out a refund. His resolution was to tell us it was in the best interest of us both for us to check out. I prepaid $250 for a week stayed 3 days and got $75 back? I told him that was unfair and he change us to a "daily rate" that was much higher. So as he requested we checked out the next day and upon leaving, one of the cleaning men gave me a middle finger. When I addressed this with the manager and he said that it was "impossible" because that employee didn't know what that meant. Obviously this manager is a liar and covers up for his employees unjust actions. I would never recommend this place to ANYONE. These people are liars and crooks.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>DO NOT STAY HERE. I stayed here with my wife and 9 month old baby. All of the employees and guests were creepy and made sexual moves towards my wife everytime she left the room, we shrugged it off, I mean you get what you pay for right? Wrong. While my wife was in the room she would get calls on the hotel room phone asking "If you want to [--], come to room 225," well when it happened the first day she said they must have had the wrong number and we assumed it would stop. We continued to get more calls at the beginning of our second week, saying the same thing everytime, all three calls in one day. I called the office and explained what happened, they just said there was nothing they could do. I asked if they could pull the call logs they said no, and on top of that they said there was no room 225. I did a little investigating and found out that the room "225" or at least where it should have been, was a "storage room" and had the numbers scratched off. I saw that there were people inside most of these "storage rooms" that appeared to be some sort of employee housing. When I asked him about it he continued to get irate and say that it was storage. I told him my wife didn't feel comfortable and he...DO NOT STAY HERE. I stayed here with my wife and 9 month old baby. All of the employees and guests were creepy and made sexual moves towards my wife everytime she left the room, we shrugged it off, I mean you get what you pay for right? Wrong. While my wife was in the room she would get calls on the hotel room phone asking "If you want to [--], come to room 225," well when it happened the first day she said they must have had the wrong number and we assumed it would stop. We continued to get more calls at the beginning of our second week, saying the same thing everytime, all three calls in one day. I called the office and explained what happened, they just said there was nothing they could do. I asked if they could pull the call logs they said no, and on top of that they said there was no room 225. I did a little investigating and found out that the room "225" or at least where it should have been, was a "storage room" and had the numbers scratched off. I saw that there were people inside most of these "storage rooms" that appeared to be some sort of employee housing. When I asked him about it he continued to get irate and say that it was storage. I told him my wife didn't feel comfortable and he needed to either make the calls stop find out who it is and reassure us of some sort of safety or work out a refund. His resolution was to tell us it was in the best interest of us both for us to check out. I prepaid $250 for a week stayed 3 days and got $75 back? I told him that was unfair and he change us to a "daily rate" that was much higher. So as he requested we checked out the next day and upon leaving, one of the cleaning men gave me a middle finger. When I addressed this with the manager and he said that it was "impossible" because that employee didn't know what that meant. Obviously this manager is a liar and covers up for his employees unjust actions. I would never recommend this place to ANYONE. These people are liars and crooks.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d107153-r135105777-Knights_Inn_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>135105777</t>
+  </si>
+  <si>
+    <t>07/22/2012</t>
+  </si>
+  <si>
+    <t>Great hotel</t>
+  </si>
+  <si>
+    <t>This is a nice and cozy place although the reviews seem to be a bit outdated. It seems to be under new ownership/managment? Nicely, newly painted exterior is welcoming and clean. Grounds are clean and well mantained. Rooms are comfy with King Sized beds and lots of small ammenities such as coffee maker, fluffy clean towels, iron/board, blowdryer. Waffles for breakfast are fun but everything else in breakfast is lacking. Very good service. All in all a nice place.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d107153-r132585989-Knights_Inn_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>132585989</t>
+  </si>
+  <si>
+    <t>06/23/2012</t>
+  </si>
+  <si>
+    <t>OK for sleeping, but better hotels are nearby</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here for one night after driving from Mississippi to hear my brother-in-law's band. I purposely selected this hotel because I knew we would spend very little time in the room and because we were bringing our dog with us. 
+The room was fairly clean (no trash, no visible hairs, etc.), but it is obvious that this place is not well-managed. The furniture is scratched, the towels are dingy, the sheets are stained, there is no cover on the ironing board, and one of the chairs is broken. The sink and tub both have stains and cigarette burns. The curtains are falling down and the chain has been removed from the door as well. We did not see any bugs in our room, as other posters had mentioned.
+My biggest problem with this hotel is that the manager called me away from the musical show we were attending to come back to the hotel and retrieve the dog from my room before they called animal control. I explained to him that both the hotel website and Trip Advisor say that the hotel allows dogs. He made me come into the office and show him on his computer. Even though he saw that the sites do day pets are allowed, he made me take my dog from the hotel. Fortunately, we had family staying at the La Quinta, so I was able to take our pet there....My husband and I stayed here for one night after driving from Mississippi to hear my brother-in-law's band. I purposely selected this hotel because I knew we would spend very little time in the room and because we were bringing our dog with us. The room was fairly clean (no trash, no visible hairs, etc.), but it is obvious that this place is not well-managed. The furniture is scratched, the towels are dingy, the sheets are stained, there is no cover on the ironing board, and one of the chairs is broken. The sink and tub both have stains and cigarette burns. The curtains are falling down and the chain has been removed from the door as well. We did not see any bugs in our room, as other posters had mentioned.My biggest problem with this hotel is that the manager called me away from the musical show we were attending to come back to the hotel and retrieve the dog from my room before they called animal control. I explained to him that both the hotel website and Trip Advisor say that the hotel allows dogs. He made me come into the office and show him on his computer. Even though he saw that the sites do day pets are allowed, he made me take my dog from the hotel. Fortunately, we had family staying at the La Quinta, so I was able to take our pet there.   My husband was irritated because he felt that our dog couldn't have done any more damage to the room than what had already been done.The La Quinta is only one block away, has much friendlier staff, and is much cleaner than the Knights Inn. I recommend that anyone who needs a cheap room should pay $10 more for something decent. Additionally, I believe that no children should be brought to the Knights Inn because it is too poorly managed.MoreShow less</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here for one night after driving from Mississippi to hear my brother-in-law's band. I purposely selected this hotel because I knew we would spend very little time in the room and because we were bringing our dog with us. 
+The room was fairly clean (no trash, no visible hairs, etc.), but it is obvious that this place is not well-managed. The furniture is scratched, the towels are dingy, the sheets are stained, there is no cover on the ironing board, and one of the chairs is broken. The sink and tub both have stains and cigarette burns. The curtains are falling down and the chain has been removed from the door as well. We did not see any bugs in our room, as other posters had mentioned.
+My biggest problem with this hotel is that the manager called me away from the musical show we were attending to come back to the hotel and retrieve the dog from my room before they called animal control. I explained to him that both the hotel website and Trip Advisor say that the hotel allows dogs. He made me come into the office and show him on his computer. Even though he saw that the sites do day pets are allowed, he made me take my dog from the hotel. Fortunately, we had family staying at the La Quinta, so I was able to take our pet there....My husband and I stayed here for one night after driving from Mississippi to hear my brother-in-law's band. I purposely selected this hotel because I knew we would spend very little time in the room and because we were bringing our dog with us. The room was fairly clean (no trash, no visible hairs, etc.), but it is obvious that this place is not well-managed. The furniture is scratched, the towels are dingy, the sheets are stained, there is no cover on the ironing board, and one of the chairs is broken. The sink and tub both have stains and cigarette burns. The curtains are falling down and the chain has been removed from the door as well. We did not see any bugs in our room, as other posters had mentioned.My biggest problem with this hotel is that the manager called me away from the musical show we were attending to come back to the hotel and retrieve the dog from my room before they called animal control. I explained to him that both the hotel website and Trip Advisor say that the hotel allows dogs. He made me come into the office and show him on his computer. Even though he saw that the sites do day pets are allowed, he made me take my dog from the hotel. Fortunately, we had family staying at the La Quinta, so I was able to take our pet there.   My husband was irritated because he felt that our dog couldn't have done any more damage to the room than what had already been done.The La Quinta is only one block away, has much friendlier staff, and is much cleaner than the Knights Inn. I recommend that anyone who needs a cheap room should pay $10 more for something decent. Additionally, I believe that no children should be brought to the Knights Inn because it is too poorly managed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d107153-r119904084-Knights_Inn_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>119904084</t>
+  </si>
+  <si>
+    <t>10/30/2011</t>
+  </si>
+  <si>
+    <t>Workers walk in on you in room without knocking and are rude.</t>
+  </si>
+  <si>
+    <t>I had taken my teenage daughter to a band competition.  We got up the next morning and I went to get the car to pull around closer to our room so we could pack.  While I was getting the car, one of the staff an older "gentleman" swung open the room door without knocking and told me daughter to leave or pay for another room.  It was 5 minutes after the posted check out time.  When I came back she was scared to death.  I am just thankful she had finished dressing before he came in.  She went and got into the car as I continued to load the car.  I went back to the room to use the bathroom and the man walked in on me and stated the same thing.  Being a dad I unleashed on him about walking in on my daughter without knocking and scaring her to death.  This has to be the worst experience I have ever had at a hotel and warn everyone not to go back.  On top of this the door did not seal to keep the cold air out.  You could see light all around the door line.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>I had taken my teenage daughter to a band competition.  We got up the next morning and I went to get the car to pull around closer to our room so we could pack.  While I was getting the car, one of the staff an older "gentleman" swung open the room door without knocking and told me daughter to leave or pay for another room.  It was 5 minutes after the posted check out time.  When I came back she was scared to death.  I am just thankful she had finished dressing before he came in.  She went and got into the car as I continued to load the car.  I went back to the room to use the bathroom and the man walked in on me and stated the same thing.  Being a dad I unleashed on him about walking in on my daughter without knocking and scaring her to death.  This has to be the worst experience I have ever had at a hotel and warn everyone not to go back.  On top of this the door did not seal to keep the cold air out.  You could see light all around the door line.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d107153-r113270201-Knights_Inn_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>113270201</t>
+  </si>
+  <si>
+    <t>06/13/2011</t>
+  </si>
+  <si>
+    <t>horrible worst ever</t>
+  </si>
+  <si>
+    <t>needed a hotel over night to continue trip in am. room had bugd,mold ,on shower curtain, told management and they said sorry . did not do a thing . did npt give money back. left went to la quinta down road gave me half price for all the trouble i had already been thru. stay away</t>
+  </si>
+  <si>
+    <t>June 2011</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d107153-r23236236-Knights_Inn_Denton-Denton_Texas.html</t>
@@ -525,9 +574,6 @@
     <t>My friends and I stayed here b/c it was conveniently located along the highway and the price was right. For the money, well, you get what you pay for, so I can't complaint but I DON'T recommend staying here. The rooms weren't clean (crumbs on the floor, trash on the floor of the bathroom), appliances were marginal (no plug in the drain of the sink), and there was a big stain that looked like vomit on the rug. The *best* thing was the doorjamb, which was repaired, but had been splintered apart at one point in time --- someone had kicked the door in. Oh, and no security locks on the door --- just a chain.More</t>
   </si>
   <si>
-    <t>NewTravelerArkansas</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d107153-r18714573-Knights_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -549,9 +595,6 @@
     <t>I attempted to stay at this hotel in July 2008. I was in town for a convention and our group leader had negotiated a cheaper rate. I showed up at about 8:30p.m., paid in cash and got my key. When I pulled up to my room, there were several men on the steps drinking beer, listening to music and barbecuing. Yes, they actually had a grill. Anyway, I went to my room and my friend and I were very disappointed in the room. It was run down, holes in the ceiling, and lots of dust and hair in the chairs. The towels looked as if they had been dried only, not washed or bleached. The sheets were BLUE (???) and dingy. Even so, we wanted to honor our reservation and decided we would just go to Wal-Mart and pick up some cleaning supplies and clean the rooms and try to stay through the weekend as we had planned. Right about that time, we saw roaches crawling up the wall. At that point, we knew we couldn't endure it. We left the room, and went back to the front desk to get a refund. The lady apologized for the condition of the room and asked me to look at another room that would be better. As we were looking the room over, a manager of sorts came to the door and asked what we had decided. We told him we were...I attempted to stay at this hotel in July 2008. I was in town for a convention and our group leader had negotiated a cheaper rate. I showed up at about 8:30p.m., paid in cash and got my key. When I pulled up to my room, there were several men on the steps drinking beer, listening to music and barbecuing. Yes, they actually had a grill. Anyway, I went to my room and my friend and I were very disappointed in the room. It was run down, holes in the ceiling, and lots of dust and hair in the chairs. The towels looked as if they had been dried only, not washed or bleached. The sheets were BLUE (???) and dingy. Even so, we wanted to honor our reservation and decided we would just go to Wal-Mart and pick up some cleaning supplies and clean the rooms and try to stay through the weekend as we had planned. Right about that time, we saw roaches crawling up the wall. At that point, we knew we couldn't endure it. We left the room, and went back to the front desk to get a refund. The lady apologized for the condition of the room and asked me to look at another room that would be better. As we were looking the room over, a manager of sorts came to the door and asked what we had decided. We told him we were not going to stay. At that point he became very irate, yelling and insisting that we leave the room immediately and told us that we WOULD pay for the room since we had "messed up two good rooms." He threatened to call the cops on us and was completely livid! He ranted and raved in a horrible way. We ended up having to pay a $35 cancellation fee for that horrific experience, and we were disrespected and badgered in the process. Obviously, I will never stay there again, and I was surprised that people in public service could behave so horribly. We left there and went to another hotel which was more expensive but totally worth it. I would not recommend this place to my enemy.More</t>
   </si>
   <si>
-    <t>8thSamurai</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d107153-r17109570-Knights_Inn_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -571,9 +614,6 @@
   </si>
   <si>
     <t>I am a member of Trip Rewards now called Wyndham Rewards. I usually have good results booking through them. This Days Inn is misrepresented by the photo. It is now a run down, seedy establishment. The room I stayed in had been renovated and it was still a mess. When I first arrived I knew by the old furniture stacked up on the 2nd floor landing that this was going to be bad. I have photos, but cannot download them at this time. I stayed one night and checked out the next day. A pretty new Super 8 is just a mile down the road and a great value for all that you get. There are plenty of other motels as well.More</t>
-  </si>
-  <si>
-    <t>Roadster81</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d107153-r12833398-Knights_Inn_Denton-Denton_Texas.html</t>
@@ -1099,47 +1139,43 @@
       <c r="A2" t="n">
         <v>22152</v>
       </c>
-      <c r="B2" t="n">
-        <v>28419</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
         <v>43</v>
       </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>45</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>46</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
         <v>51</v>
       </c>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>52</v>
-      </c>
-      <c r="O2" t="s">
-        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1157,54 +1193,50 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>22152</v>
       </c>
-      <c r="B3" t="n">
-        <v>2559</v>
-      </c>
-      <c r="C3" t="s">
-        <v>54</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
         <v>55</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>56</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>57</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
         <v>58</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
         <v>59</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="s">
-        <v>60</v>
-      </c>
-      <c r="O3" t="s">
-        <v>61</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1218,54 +1250,50 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>22152</v>
       </c>
-      <c r="B4" t="n">
-        <v>162745</v>
-      </c>
-      <c r="C4" t="s">
-        <v>62</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
         <v>63</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>64</v>
       </c>
-      <c r="J4" t="s">
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
         <v>65</v>
       </c>
-      <c r="K4" t="s">
+      <c r="O4" t="s">
         <v>66</v>
-      </c>
-      <c r="L4" t="s">
-        <v>67</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="s">
-        <v>68</v>
-      </c>
-      <c r="O4" t="s">
-        <v>69</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="n">
@@ -1283,54 +1311,50 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>22152</v>
       </c>
-      <c r="B5" t="n">
-        <v>162746</v>
-      </c>
-      <c r="C5" t="s">
-        <v>71</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
         <v>72</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
         <v>73</v>
       </c>
-      <c r="J5" t="s">
-        <v>74</v>
-      </c>
-      <c r="K5" t="s">
-        <v>75</v>
-      </c>
-      <c r="L5" t="s">
-        <v>76</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="s">
-        <v>77</v>
-      </c>
       <c r="O5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1344,54 +1368,50 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>22152</v>
       </c>
-      <c r="B6" t="n">
-        <v>162747</v>
-      </c>
-      <c r="C6" t="s">
-        <v>78</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
         <v>46</v>
       </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
       <c r="I6" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="J6" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="K6" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="L6" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="O6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="n">
@@ -1411,54 +1431,50 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>22152</v>
       </c>
-      <c r="B7" t="n">
-        <v>162748</v>
-      </c>
-      <c r="C7" t="s">
-        <v>86</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
         <v>46</v>
       </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
       <c r="I7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="J7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="K7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="L7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1472,45 +1488,41 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>22152</v>
       </c>
-      <c r="B8" t="n">
-        <v>162749</v>
-      </c>
-      <c r="C8" t="s">
-        <v>93</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
         <v>46</v>
       </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
       <c r="I8" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="J8" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="K8" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="L8" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
@@ -1539,54 +1551,50 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>22152</v>
       </c>
-      <c r="B9" t="n">
-        <v>58578</v>
-      </c>
-      <c r="C9" t="s">
-        <v>100</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
         <v>46</v>
       </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
       <c r="I9" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="J9" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="K9" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="L9" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="M9" t="n">
         <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="O9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P9" t="n">
         <v>3</v>
@@ -1606,54 +1614,50 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>22152</v>
       </c>
-      <c r="B10" t="n">
-        <v>162750</v>
-      </c>
-      <c r="C10" t="s">
-        <v>108</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
         <v>46</v>
       </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
       <c r="I10" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="J10" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="K10" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="L10" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="O10" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="P10" t="n">
         <v>5</v>
@@ -1673,54 +1677,50 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>22152</v>
       </c>
-      <c r="B11" t="n">
-        <v>37375</v>
-      </c>
-      <c r="C11" t="s">
-        <v>117</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
         <v>46</v>
       </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
       <c r="I11" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="J11" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="K11" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="L11" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="O11" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -1734,54 +1734,50 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>22152</v>
       </c>
-      <c r="B12" t="n">
-        <v>3062</v>
-      </c>
-      <c r="C12" t="s">
-        <v>125</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
         <v>46</v>
       </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
       <c r="I12" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="J12" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="K12" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="L12" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="M12" t="n">
         <v>2</v>
       </c>
       <c r="N12" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P12" t="n">
         <v>2</v>
@@ -1805,54 +1801,50 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>22152</v>
       </c>
-      <c r="B13" t="n">
-        <v>162751</v>
-      </c>
-      <c r="C13" t="s">
-        <v>132</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
         <v>46</v>
       </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
       <c r="I13" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="J13" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="K13" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="L13" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="O13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P13" t="n">
         <v>1</v>
@@ -1876,54 +1868,50 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>22152</v>
       </c>
-      <c r="B14" t="n">
-        <v>162752</v>
-      </c>
-      <c r="C14" t="s">
-        <v>140</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
         <v>46</v>
       </c>
-      <c r="H14" t="s">
-        <v>47</v>
-      </c>
       <c r="I14" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="J14" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="K14" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="L14" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="M14" t="n">
         <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P14" t="n">
         <v>3</v>
@@ -1947,54 +1935,50 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>22152</v>
       </c>
-      <c r="B15" t="n">
-        <v>162753</v>
-      </c>
-      <c r="C15" t="s">
-        <v>147</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
         <v>46</v>
       </c>
-      <c r="H15" t="s">
-        <v>47</v>
-      </c>
       <c r="I15" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="J15" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="K15" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="L15" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="O15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P15" t="n">
         <v>1</v>
@@ -2018,54 +2002,50 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>22152</v>
       </c>
-      <c r="B16" t="n">
-        <v>162754</v>
-      </c>
-      <c r="C16" t="s">
-        <v>154</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
         <v>46</v>
       </c>
-      <c r="H16" t="s">
-        <v>47</v>
-      </c>
       <c r="I16" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="J16" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="K16" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="L16" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="O16" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="P16" t="n">
         <v>5</v>
@@ -2089,139 +2069,129 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>22152</v>
       </c>
-      <c r="B17" t="n">
-        <v>162755</v>
-      </c>
-      <c r="C17" t="s">
-        <v>161</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
         <v>46</v>
       </c>
-      <c r="H17" t="s">
-        <v>47</v>
-      </c>
       <c r="I17" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="J17" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="K17" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="L17" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="O17" t="s">
-        <v>115</v>
+        <v>59</v>
       </c>
       <c r="P17" t="n">
         <v>2</v>
       </c>
       <c r="Q17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R17" t="n">
+        <v>3</v>
+      </c>
+      <c r="S17" t="n">
         <v>2</v>
       </c>
-      <c r="S17" t="n">
-        <v>1</v>
-      </c>
       <c r="T17" t="s"/>
-      <c r="U17" t="s"/>
+      <c r="U17" t="n">
+        <v>1</v>
+      </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>22152</v>
       </c>
-      <c r="B18" t="n">
-        <v>162756</v>
-      </c>
-      <c r="C18" t="s">
-        <v>169</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
         <v>46</v>
       </c>
-      <c r="H18" t="s">
-        <v>47</v>
-      </c>
       <c r="I18" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="J18" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="K18" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="L18" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="s">
-        <v>175</v>
-      </c>
-      <c r="O18" t="s">
-        <v>124</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N18" t="s"/>
+      <c r="O18" t="s"/>
       <c r="P18" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2229,70 +2199,62 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>22152</v>
       </c>
-      <c r="B19" t="n">
-        <v>162757</v>
-      </c>
-      <c r="C19" t="s">
-        <v>177</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
         <v>46</v>
       </c>
-      <c r="H19" t="s">
-        <v>47</v>
-      </c>
       <c r="I19" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="J19" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="K19" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="L19" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="s">
-        <v>183</v>
-      </c>
-      <c r="O19" t="s">
-        <v>124</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N19" t="s"/>
+      <c r="O19" t="s"/>
       <c r="P19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>
       </c>
       <c r="R19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S19" t="n">
         <v>2</v>
       </c>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2300,70 +2262,66 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>22152</v>
       </c>
-      <c r="B20" t="n">
-        <v>162758</v>
-      </c>
-      <c r="C20" t="s">
-        <v>185</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
         <v>46</v>
       </c>
-      <c r="H20" t="s">
-        <v>47</v>
-      </c>
       <c r="I20" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="J20" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="K20" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="L20" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="M20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="O20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2371,7 +2329,336 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>22152</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>171</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>172</v>
+      </c>
+      <c r="J21" t="s">
+        <v>173</v>
+      </c>
+      <c r="K21" t="s">
+        <v>174</v>
+      </c>
+      <c r="L21" t="s">
+        <v>175</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>176</v>
+      </c>
+      <c r="O21" t="s">
+        <v>59</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="n">
+        <v>1</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>1</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>22152</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>177</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>178</v>
+      </c>
+      <c r="J22" t="s">
+        <v>179</v>
+      </c>
+      <c r="K22" t="s">
+        <v>180</v>
+      </c>
+      <c r="L22" t="s">
+        <v>181</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>182</v>
+      </c>
+      <c r="O22" t="s">
+        <v>106</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1</v>
+      </c>
+      <c r="R22" t="n">
+        <v>2</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22152</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>184</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>185</v>
+      </c>
+      <c r="J23" t="s">
+        <v>186</v>
+      </c>
+      <c r="K23" t="s">
+        <v>187</v>
+      </c>
+      <c r="L23" t="s">
+        <v>188</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>189</v>
+      </c>
+      <c r="O23" t="s">
+        <v>114</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1</v>
+      </c>
+      <c r="R23" t="n">
+        <v>2</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>1</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>22152</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>191</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
         <v>192</v>
+      </c>
+      <c r="J24" t="s">
+        <v>193</v>
+      </c>
+      <c r="K24" t="s">
+        <v>194</v>
+      </c>
+      <c r="L24" t="s">
+        <v>195</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>196</v>
+      </c>
+      <c r="O24" t="s">
+        <v>114</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1</v>
+      </c>
+      <c r="R24" t="n">
+        <v>2</v>
+      </c>
+      <c r="S24" t="n">
+        <v>2</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>3</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>22152</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>198</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>199</v>
+      </c>
+      <c r="J25" t="s">
+        <v>200</v>
+      </c>
+      <c r="K25" t="s">
+        <v>201</v>
+      </c>
+      <c r="L25" t="s">
+        <v>202</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>203</v>
+      </c>
+      <c r="O25" t="s">
+        <v>59</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>
